--- a/version1.0/Docs/3D printing.xlsx
+++ b/version1.0/Docs/3D printing.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{EBD3ED19-3547-4837-96BD-8CA22AA81EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCCEB250-1972-45E8-8A99-D12E8C016378}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{EBD3ED19-3547-4837-96BD-8CA22AA81EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49BE96B0-6C61-46C6-A056-A966FE52BE7C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D818D630-598A-4964-BB54-C14C0E759114}"/>
+    <workbookView xWindow="19090" yWindow="1770" windowWidth="19420" windowHeight="10300" xr2:uid="{D818D630-598A-4964-BB54-C14C0E759114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,70 +36,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Part</t>
   </si>
   <si>
+    <t>Number</t>
+  </si>
+  <si>
     <t>Grams</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Number</t>
+    <t>Tot. g</t>
+  </si>
+  <si>
+    <t>Tot. T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per min </t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Tot Cost</t>
+  </si>
+  <si>
+    <t>Nozzle</t>
+  </si>
+  <si>
+    <t>Print Set.</t>
   </si>
   <si>
     <t xml:space="preserve">Wall </t>
   </si>
   <si>
-    <t>Tot. g</t>
-  </si>
-  <si>
-    <t>Tot. T</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Tot Cost</t>
-  </si>
-  <si>
-    <t>Nozzle</t>
-  </si>
-  <si>
-    <t>Print Set.</t>
+    <t>Chassis Plates x 4</t>
+  </si>
+  <si>
+    <t>Bottom Plates x 4</t>
   </si>
   <si>
     <t>Battery Adapter</t>
   </si>
   <si>
+    <t>Motor Mounts x 2</t>
+  </si>
+  <si>
+    <t>Castor Mounts x 2</t>
+  </si>
+  <si>
+    <t>Big Pulley</t>
+  </si>
+  <si>
+    <t>Axel mount &amp; spacer x 2</t>
+  </si>
+  <si>
     <t>Totals</t>
-  </si>
-  <si>
-    <t>Motor Mounts x 2</t>
-  </si>
-  <si>
-    <t>Bottom Plates x 4</t>
-  </si>
-  <si>
-    <t>Chassis Plates x 4</t>
-  </si>
-  <si>
-    <t>Castor Mounts x 2</t>
-  </si>
-  <si>
-    <t>Big Pulley</t>
-  </si>
-  <si>
-    <t>Axel mount &amp; spacer x 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,10 +167,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,52 +466,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2E3AB6-0199-4839-86F8-75BB47413112}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J2" sqref="J2:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -529,22 +537,29 @@
         <v>66.64</v>
       </c>
       <c r="G2">
+        <f>0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
         <v>12.33</v>
       </c>
-      <c r="H2">
-        <f>G2*B2</f>
-        <v>49.32</v>
-      </c>
-      <c r="I2">
+      <c r="J2">
+        <f>(I2*B2)+H2+(G2*(F2*60))</f>
+        <v>279.24</v>
+      </c>
+      <c r="K2">
         <v>0.6</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -564,20 +579,27 @@
         <v>12.33</v>
       </c>
       <c r="G3">
+        <f t="shared" ref="G3:G9" si="1">0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
         <v>3.87</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H9" si="1">G3*B3</f>
-        <v>3.87</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="2">(I3*B3)+H3+(G3*(F3*60))</f>
+        <v>70.86</v>
+      </c>
+      <c r="K3">
         <v>0.4</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -591,7 +613,7 @@
         <v>1.5</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="2">C4*B4</f>
+        <f t="shared" ref="E4:E9" si="3">C4*B4</f>
         <v>30.63</v>
       </c>
       <c r="F4">
@@ -599,22 +621,29 @@
         <v>1.5</v>
       </c>
       <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
         <v>0.78</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>0.78</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>35.28</v>
+      </c>
+      <c r="K4">
         <v>0.4</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -626,7 +655,7 @@
         <v>20.5</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>278.72000000000003</v>
       </c>
       <c r="F5">
@@ -634,22 +663,29 @@
         <v>20.5</v>
       </c>
       <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
         <v>7.08</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>7.08</v>
-      </c>
-      <c r="I5">
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>98.58</v>
+      </c>
+      <c r="K5">
         <v>0.4</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -661,7 +697,7 @@
         <v>5.25</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143.43</v>
       </c>
       <c r="F6">
@@ -669,57 +705,71 @@
         <v>5.25</v>
       </c>
       <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
         <v>3.64</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>3.64</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>49.39</v>
+      </c>
+      <c r="K6">
         <v>0.6</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>57.58</v>
+        <v>20.07</v>
       </c>
       <c r="D7">
-        <v>2.16</v>
+        <v>0.75</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>57.58</v>
+        <f t="shared" si="3"/>
+        <v>20.07</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>2.16</v>
+        <v>0.75</v>
       </c>
       <c r="G7">
-        <v>1.46</v>
+        <f t="shared" si="1"/>
+        <v>0.05</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>1.46</v>
+        <v>30</v>
       </c>
       <c r="I7">
+        <v>0.51</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>32.760000000000005</v>
+      </c>
+      <c r="K7">
         <v>0.6</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -731,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>598.20000000000005</v>
       </c>
       <c r="F8">
@@ -739,22 +789,29 @@
         <v>20</v>
       </c>
       <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
         <v>7.6</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>15.2</v>
-      </c>
-      <c r="I8">
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>105.2</v>
+      </c>
+      <c r="K8">
         <v>0.6</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -766,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.32</v>
       </c>
       <c r="F9">
@@ -774,38 +831,45 @@
         <v>1</v>
       </c>
       <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I9">
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>33.57</v>
+      </c>
+      <c r="K9">
         <v>0.6</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <f>SUM(E2:E13)/1000</f>
-        <v>3.22532</v>
+        <v>3.1878099999999998</v>
       </c>
       <c r="F14">
         <f>SUM(F2:F13)</f>
-        <v>129.38</v>
-      </c>
-      <c r="G14">
-        <f>SUM(G2:G13)</f>
-        <v>37.330000000000005</v>
-      </c>
-      <c r="H14">
-        <f>SUM(H2:H13)</f>
-        <v>81.919999999999987</v>
+        <v>127.97</v>
+      </c>
+      <c r="I14">
+        <f>SUM(I2:I13)</f>
+        <v>36.380000000000003</v>
+      </c>
+      <c r="J14">
+        <f>SUM(J2:J13)</f>
+        <v>704.88000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/version1.0/Docs/3D printing.xlsx
+++ b/version1.0/Docs/3D printing.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>

--- a/version1.0/Docs/3D printing.xlsx
+++ b/version1.0/Docs/3D printing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zmlhq-my.sharepoint.com/personal/daisy_brown_zenmakerlab_com/Documents/gitcobot/version1.0/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{EBD3ED19-3547-4837-96BD-8CA22AA81EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49BE96B0-6C61-46C6-A056-A966FE52BE7C}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{EBD3ED19-3547-4837-96BD-8CA22AA81EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{310A14A6-C744-4D79-9C8B-0CC40EDD997F}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="1770" windowWidth="19420" windowHeight="10300" xr2:uid="{D818D630-598A-4964-BB54-C14C0E759114}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Part</t>
   </si>
@@ -98,7 +98,13 @@
     <t>Axel mount &amp; spacer x 2</t>
   </si>
   <si>
+    <t>Battery mount</t>
+  </si>
+  <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>days</t>
   </si>
 </sst>
 </file>
@@ -469,7 +475,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -575,11 +581,11 @@
         <v>152.4</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="0">D3*B3</f>
+        <f t="shared" ref="F3:F11" si="0">D3*B3</f>
         <v>12.33</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G9" si="1">0.05</f>
+        <f t="shared" ref="G3:H10" si="1">0.05</f>
         <v>0.05</v>
       </c>
       <c r="H3">
@@ -589,7 +595,7 @@
         <v>3.87</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" si="2">(I3*B3)+H3+(G3*(F3*60))</f>
+        <f t="shared" ref="J3:J10" si="2">(I3*B3)+H3+(G3*(F3*60))</f>
         <v>70.86</v>
       </c>
       <c r="K3">
@@ -613,7 +619,7 @@
         <v>1.5</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="3">C4*B4</f>
+        <f t="shared" ref="E4:E10" si="3">C4*B4</f>
         <v>30.63</v>
       </c>
       <c r="F4">
@@ -851,25 +857,70 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>658</v>
+      </c>
+      <c r="D10">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>658</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>16.71</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>244.71</v>
+      </c>
+      <c r="K10">
+        <v>0.4</v>
+      </c>
+      <c r="L10">
+        <v>0.15</v>
+      </c>
+    </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <f>SUM(E2:E13)/1000</f>
-        <v>3.1878099999999998</v>
+        <v>3.8458099999999997</v>
       </c>
       <c r="F14">
-        <f>SUM(F2:F13)</f>
-        <v>127.97</v>
+        <f>SUM(F2:F13)/24</f>
+        <v>8.0820833333333333</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
       </c>
       <c r="I14">
         <f>SUM(I2:I13)</f>
-        <v>36.380000000000003</v>
+        <v>53.09</v>
       </c>
       <c r="J14">
         <f>SUM(J2:J13)</f>
-        <v>704.88000000000011</v>
+        <v>949.59000000000015</v>
       </c>
     </row>
   </sheetData>
